--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3619.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3619.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.269829936833971</v>
+        <v>1.738708734512329</v>
       </c>
       <c r="B1">
-        <v>2.261332060363913</v>
+        <v>2.795881032943726</v>
       </c>
       <c r="C1">
-        <v>3.05028347718108</v>
+        <v>3.480600118637085</v>
       </c>
       <c r="D1">
-        <v>3.331719162794968</v>
+        <v>1.339206099510193</v>
       </c>
       <c r="E1">
-        <v>0.9631955955312576</v>
+        <v>0.8928744196891785</v>
       </c>
     </row>
   </sheetData>
